--- a/Honnun/UseCases/Use_cases_A_WIP.xlsx
+++ b/Honnun/UseCases/Use_cases_A_WIP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halli\Desktop\VLN1\VNL1-2022-HOPUR-28\Honnun\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDD7DDA-12B4-401B-B74F-C66935886F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10FF785-B850-48A8-B6C6-13DDA36E03DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9CE7003-7C71-4049-AB61-1D7266533BEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D9CE7003-7C71-4049-AB61-1D7266533BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -355,10 +355,6 @@
   </si>
   <si>
     <t>Submit match results</t>
-  </si>
-  <si>
-    <t>Is logged in as host
-At least two teams are registered</t>
   </si>
   <si>
     <t>UC.1.4, UC.1.2</t>
@@ -421,11 +417,6 @@
 5a. Select "n"
 8b. Select "y" more than 4 times
 8b.1. Error alert "Team is full" </t>
-  </si>
-  <si>
-    <t>1a. Start from UC.1.2 main scenario step x, or UC.1.2 alternative scenario step x
-1a.1. Select "y" to add player to team
-1a.2 Continue from step 1 in main scenario</t>
   </si>
   <si>
     <t>UC.1.4, UC.1.0, UC.1.2</t>
@@ -549,6 +540,18 @@
   </si>
   <si>
     <t>UC.2.1</t>
+  </si>
+  <si>
+    <t>1a. Start from UC.1.2  step 6a
+1a.1. Input asked for player info
+1a.2 repeat step 1a or select "n"</t>
+  </si>
+  <si>
+    <t>Is logged in as host
+At least two teams with 4 players are registered</t>
+  </si>
+  <si>
+    <t>Use Case No.</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -752,10 +755,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -763,37 +769,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -808,6 +790,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -817,17 +814,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -838,11 +850,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,70 +1212,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEA3462-CC1F-4B08-B744-49687EEAB51E}">
-  <dimension ref="B2:AW50"/>
+  <dimension ref="B2:AW54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29:Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="17" max="17" width="23.109375" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12" t="s">
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
     </row>
     <row r="3" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="I3" s="12" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="I3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="P3" s="12" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="P3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="W3" s="14" t="s">
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="W3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="12" t="s">
+      <c r="X3" s="15"/>
+      <c r="Y3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -1242,46 +1300,46 @@
       <c r="AW3" s="1"/>
     </row>
     <row r="4" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="I4" s="14" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="I4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="P4" s="14" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="P4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="12" t="s">
+      <c r="Q4" s="15"/>
+      <c r="R4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="W4" s="15" t="s">
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="W4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="12" t="s">
+      <c r="X4" s="16"/>
+      <c r="Y4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="1"/>
@@ -1302,46 +1360,46 @@
       <c r="AW4" s="1"/>
     </row>
     <row r="5" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="I5" s="15" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="I5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="P5" s="15" t="s">
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="P5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="12" t="s">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="W5" s="14" t="s">
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="W5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="12" t="s">
+      <c r="X5" s="15"/>
+      <c r="Y5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="1"/>
@@ -1362,36 +1420,36 @@
       <c r="AW5" s="1"/>
     </row>
     <row r="6" spans="2:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="I6" s="14" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="I6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12" t="s">
+      <c r="J6" s="15"/>
+      <c r="K6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="P6" s="14" t="s">
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="P6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="12" t="s">
+      <c r="Q6" s="15"/>
+      <c r="R6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
       <c r="W6" s="13" t="s">
         <v>3</v>
       </c>
@@ -1432,16 +1490,16 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37" t="s">
+      <c r="J7" s="17"/>
+      <c r="K7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
       <c r="P7" s="13" t="s">
         <v>4</v>
       </c>
@@ -1484,12 +1542,12 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
@@ -1527,7 +1585,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1537,7 +1595,7 @@
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -1547,7 +1605,7 @@
       </c>
       <c r="Q9" s="13"/>
       <c r="R9" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
@@ -1557,7 +1615,7 @@
       </c>
       <c r="X9" s="13"/>
       <c r="Y9" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
@@ -1777,9 +1835,9 @@
       <c r="R14" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
@@ -1787,7 +1845,7 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AD14" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -1822,10 +1880,10 @@
       <c r="N15" s="13"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -1866,16 +1924,16 @@
       <c r="N16" s="13"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="W16" s="12" t="s">
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="W16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="X16" s="12"/>
+      <c r="X16" s="14"/>
       <c r="Y16" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
@@ -1905,7 +1963,7 @@
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1915,7 +1973,7 @@
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -1926,8 +1984,8 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
@@ -1975,11 +2033,11 @@
       </c>
       <c r="X18" s="13"/>
       <c r="Y18" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
+        <v>107</v>
+      </c>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -2014,10 +2072,10 @@
       <c r="N19" s="13"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
@@ -2043,7 +2101,7 @@
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -2059,11 +2117,11 @@
       </c>
       <c r="X20" s="13"/>
       <c r="Y20" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="1"/>
@@ -2090,22 +2148,22 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
@@ -2132,18 +2190,18 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="1"/>
@@ -2175,21 +2233,21 @@
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+        <v>105</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
       <c r="W23" s="13" t="s">
         <v>7</v>
       </c>
       <c r="X23" s="13"/>
       <c r="Y23" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
+        <v>94</v>
+      </c>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="1"/>
@@ -2217,21 +2275,21 @@
       <c r="D24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="1"/>
@@ -2254,16 +2312,16 @@
     <row r="25" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="1"/>
@@ -2286,46 +2344,46 @@
     <row r="26" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
       <c r="I26" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="13"/>
-      <c r="K26" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
+      <c r="K26" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
     </row>
     <row r="27" spans="2:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
     </row>
     <row r="28" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
@@ -2340,6 +2398,33 @@
       <c r="AW28" s="1"/>
     </row>
     <row r="29" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="P29" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q29" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="S29" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="T29" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="V29" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="W29" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y29" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z29" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="1"/>
@@ -2354,6 +2439,33 @@
       <c r="AW29" s="1"/>
     </row>
     <row r="30" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="P30" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="S30" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="T30" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="V30" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="W30" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y30" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="1"/>
@@ -2368,16 +2480,43 @@
       <c r="AW30" s="1"/>
     </row>
     <row r="31" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="16" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="17"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="P31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="S31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T31" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="V31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
       <c r="AM31" s="1"/>
@@ -2391,17 +2530,44 @@
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
     </row>
-    <row r="32" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
+    <row r="32" spans="2:49" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="16" t="s">
+      <c r="C32" s="33"/>
+      <c r="D32" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="17"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="P32" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="T32" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="V32" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="W32" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y32" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
@@ -2415,17 +2581,44 @@
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
     </row>
-    <row r="33" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="s">
+    <row r="33" spans="2:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="16" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="17"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+      <c r="P33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" s="1"/>
@@ -2439,17 +2632,46 @@
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
     </row>
-    <row r="34" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B34" s="19" t="s">
+    <row r="34" spans="2:49" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="16" t="s">
+      <c r="C34" s="33"/>
+      <c r="D34" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="17"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
+      <c r="P34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W34" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" s="1"/>
@@ -2463,17 +2685,45 @@
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
     </row>
-    <row r="35" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B35" s="23" t="s">
+    <row r="35" spans="2:49" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="P35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y35" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z35" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AE35" s="44"/>
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" s="1"/>
@@ -2487,13 +2737,38 @@
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
     </row>
-    <row r="36" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
+    <row r="36" spans="2:49" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="Q36" s="12"/>
+      <c r="S36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="U36" s="12"/>
+      <c r="V36" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="W36" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y36" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="12"/>
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
@@ -2507,13 +2782,38 @@
       <c r="AV36" s="2"/>
       <c r="AW36" s="2"/>
     </row>
-    <row r="37" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
+    <row r="37" spans="2:49" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W37" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z37" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
@@ -2527,13 +2827,36 @@
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
     </row>
-    <row r="38" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
+    <row r="38" spans="2:49" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="W38" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z38" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC38" s="12"/>
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
@@ -2558,6 +2881,14 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="44"/>
+      <c r="AC39" s="12"/>
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
@@ -2571,13 +2902,17 @@
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
     </row>
-    <row r="40" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
+      <c r="Q40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="AC40" s="12"/>
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
@@ -2598,6 +2933,13 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="44"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="AC41" s="12"/>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
@@ -2618,6 +2960,17 @@
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="44"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
@@ -2631,13 +2984,17 @@
       <c r="AV42" s="2"/>
       <c r="AW42" s="2"/>
     </row>
-    <row r="43" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
+      <c r="T43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
@@ -2652,16 +3009,22 @@
       <c r="AW43" s="2"/>
     </row>
     <row r="44" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="19"/>
+      <c r="D44" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="30"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
@@ -2675,19 +3038,19 @@
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
     </row>
-    <row r="45" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
+    <row r="45" spans="2:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" s="1"/>
@@ -2702,22 +3065,20 @@
       <c r="AW45" s="1"/>
     </row>
     <row r="46" spans="2:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="23" t="s">
+      <c r="C46" s="19"/>
+      <c r="D46" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="T46" s="12"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
       <c r="AM46" s="2"/>
@@ -2731,19 +3092,19 @@
       <c r="AV46" s="1"/>
       <c r="AW46" s="1"/>
     </row>
-    <row r="47" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="33"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
+    <row r="47" spans="2:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="31"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
       <c r="AM47" s="1"/>
@@ -2758,18 +3119,18 @@
       <c r="AW47" s="1"/>
     </row>
     <row r="48" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
       <c r="AM48" s="1"/>
@@ -2783,7 +3144,7 @@
       <c r="AV48" s="1"/>
       <c r="AW48" s="1"/>
     </row>
-    <row r="49" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="13" t="s">
         <v>7</v>
       </c>
@@ -2794,12 +3155,12 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="AB49" s="44"/>
+      <c r="AC49" s="44"/>
+      <c r="AD49" s="44"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" s="1"/>
@@ -2813,19 +3174,17 @@
       <c r="AV49" s="1"/>
       <c r="AW49" s="1"/>
     </row>
-    <row r="50" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
+      <c r="T50" s="12"/>
+      <c r="AB50" s="44"/>
+      <c r="AC50" s="44"/>
+      <c r="AD50" s="44"/>
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
       <c r="AM50" s="1"/>
@@ -2839,62 +3198,66 @@
       <c r="AV50" s="1"/>
       <c r="AW50" s="1"/>
     </row>
+    <row r="51" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="44"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="44"/>
+      <c r="AB51" s="44"/>
+      <c r="AC51" s="44"/>
+      <c r="AD51" s="44"/>
+    </row>
+    <row r="52" spans="2:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="44"/>
+      <c r="Y52" s="44"/>
+      <c r="Z52" s="44"/>
+      <c r="AA52" s="44"/>
+    </row>
+    <row r="53" spans="2:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T53" s="12"/>
+      <c r="Y53" s="44"/>
+      <c r="Z53" s="44"/>
+      <c r="AA53" s="44"/>
+    </row>
+    <row r="54" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+    </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="R7:U8"/>
-    <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="K7:N8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="B9:C16"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P14:Q16"/>
-    <mergeCell ref="P9:Q13"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="Y6:AB8"/>
-    <mergeCell ref="W6:X8"/>
-    <mergeCell ref="W18:X19"/>
-    <mergeCell ref="Y18:AB19"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:G45"/>
-    <mergeCell ref="B46:C48"/>
-    <mergeCell ref="D46:G48"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="D49:G50"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="B35:C38"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="B39:C43"/>
-    <mergeCell ref="D39:G43"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="K26:N27"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D24:G26"/>
-    <mergeCell ref="D27:G28"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="R9:U13"/>
+    <mergeCell ref="W20:X22"/>
+    <mergeCell ref="Y20:AB22"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="Y23:AB24"/>
+    <mergeCell ref="R14:U16"/>
+    <mergeCell ref="B20:C23"/>
+    <mergeCell ref="D17:G19"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="K9:N16"/>
+    <mergeCell ref="I9:J16"/>
+    <mergeCell ref="K21:N22"/>
+    <mergeCell ref="I23:J25"/>
+    <mergeCell ref="K23:N25"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="D20:G23"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="I17:J20"/>
     <mergeCell ref="K17:N20"/>
     <mergeCell ref="D9:G16"/>
@@ -2905,34 +3268,64 @@
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B20:C23"/>
-    <mergeCell ref="D17:G19"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="K9:N16"/>
-    <mergeCell ref="I9:J16"/>
-    <mergeCell ref="K21:N22"/>
-    <mergeCell ref="I23:J25"/>
-    <mergeCell ref="K23:N25"/>
-    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="K26:N27"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D24:G26"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B35:C38"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="B39:C43"/>
+    <mergeCell ref="D39:G43"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:G45"/>
+    <mergeCell ref="B46:C48"/>
+    <mergeCell ref="D46:G48"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="D49:G50"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="Y6:AB8"/>
+    <mergeCell ref="W6:X8"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="Y18:AB19"/>
     <mergeCell ref="W16:X17"/>
     <mergeCell ref="Y16:AB17"/>
     <mergeCell ref="Y9:AB15"/>
     <mergeCell ref="W9:X15"/>
-    <mergeCell ref="D20:G23"/>
-    <mergeCell ref="W20:X22"/>
-    <mergeCell ref="Y20:AB22"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="Y23:AB24"/>
-    <mergeCell ref="R14:U16"/>
-    <mergeCell ref="R9:U13"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="K7:N8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="B9:C16"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P14:Q16"/>
+    <mergeCell ref="P9:Q13"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="R7:U8"/>
+    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2940,141 +3333,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028A0B01-B0E5-47D3-B0FC-A34427F883F5}">
-  <dimension ref="B2:AB49"/>
+  <dimension ref="B2:AB57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:N2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="36"/>
+      <c r="K2" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="W2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="17"/>
-      <c r="W2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="17"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="I3" s="19" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="I3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="17"/>
-      <c r="W3" s="19" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="W3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="16" t="s">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="17"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="I4" s="21" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="I4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="16" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="17"/>
-      <c r="W4" s="21" t="s">
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="36"/>
+      <c r="W4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="42" t="s">
+      <c r="X4" s="38"/>
+      <c r="Y4" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="17"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="I5" s="19" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="I5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="17"/>
-      <c r="W5" s="19" t="s">
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="W5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="42" t="s">
+      <c r="X5" s="33"/>
+      <c r="Y5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="17"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36"/>
     </row>
     <row r="6" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
@@ -3082,31 +3475,31 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="23" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="24"/>
-      <c r="W6" s="23" t="s">
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="19"/>
+      <c r="W6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="23" t="s">
+      <c r="X6" s="19"/>
+      <c r="Y6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="30"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="23"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
@@ -3115,18 +3508,18 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="26"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="33"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="28"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="31"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
@@ -3135,18 +3528,18 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="26"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="33"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="28"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="31"/>
     </row>
     <row r="9" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
@@ -3154,7 +3547,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -3164,17 +3557,17 @@
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="36"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="26"/>
     </row>
     <row r="10" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
@@ -3287,16 +3680,16 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="24"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="19"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -3311,12 +3704,12 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="28"/>
       <c r="W16" s="13" t="s">
         <v>5</v>
       </c>
@@ -3335,12 +3728,12 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="28"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="21"/>
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -3355,16 +3748,16 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
@@ -3378,27 +3771,27 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="W19" s="23" t="s">
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="W19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="23" t="s">
+      <c r="X19" s="19"/>
+      <c r="Y19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="30"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="23"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
@@ -3407,22 +3800,22 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="30"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="33"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="31"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
@@ -3431,70 +3824,70 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="36"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="26"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="36"/>
-      <c r="W22" s="23" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
+      <c r="W22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="41" t="s">
+      <c r="X22" s="19"/>
+      <c r="Y22" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="30"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="23"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="I23" s="23" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="I23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="41" t="s">
+      <c r="J23" s="19"/>
+      <c r="K23" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="30"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="36"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="26"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
@@ -3502,112 +3895,452 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="36"/>
+        <v>111</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="D27" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="43" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B31" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="I31" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="J31" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="55"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B32" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="I32" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="55"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="I33" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="55"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="I34" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="55"/>
+    </row>
+    <row r="35" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="I35" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="48"/>
+    </row>
+    <row r="36" spans="2:14" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="I36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="49"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="50"/>
+    </row>
+    <row r="37" spans="2:14" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="I37" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37" s="49"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="50"/>
+    </row>
+    <row r="38" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="I38" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="2:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="I39" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B40" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="I40" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="48"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="50"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+    </row>
+    <row r="48" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="9"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+    </row>
+    <row r="49" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="51"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="52"/>
+    </row>
+    <row r="51" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="51"/>
+    </row>
+    <row r="53" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="9"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+      <c r="C55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+    </row>
+    <row r="56" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:G8"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="K6:N8"/>
+    <mergeCell ref="I6:J8"/>
+    <mergeCell ref="Y10:AB15"/>
+    <mergeCell ref="W10:X15"/>
+    <mergeCell ref="B9:C18"/>
+    <mergeCell ref="Y16:AB18"/>
+    <mergeCell ref="W16:X18"/>
+    <mergeCell ref="K15:N17"/>
+    <mergeCell ref="I15:J17"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:N19"/>
+    <mergeCell ref="D9:G18"/>
+    <mergeCell ref="K9:N14"/>
+    <mergeCell ref="I9:J14"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:AB23"/>
+    <mergeCell ref="D19:G21"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:G23"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="K23:N24"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AB2"/>
     <mergeCell ref="B24:C26"/>
@@ -3624,48 +4357,6 @@
     <mergeCell ref="Y4:AB4"/>
     <mergeCell ref="W19:X21"/>
     <mergeCell ref="Y19:AB21"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:G28"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="Y22:AB23"/>
-    <mergeCell ref="D19:G21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:G23"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K23:N24"/>
-    <mergeCell ref="D6:G8"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="K6:N8"/>
-    <mergeCell ref="I6:J8"/>
-    <mergeCell ref="Y10:AB15"/>
-    <mergeCell ref="W10:X15"/>
-    <mergeCell ref="B9:C18"/>
-    <mergeCell ref="Y16:AB18"/>
-    <mergeCell ref="W16:X18"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K15:N17"/>
-    <mergeCell ref="I15:J17"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:N19"/>
-    <mergeCell ref="D9:G18"/>
-    <mergeCell ref="K9:N14"/>
-    <mergeCell ref="I9:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3682,92 +4373,92 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="16" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="16" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="17"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="I3" s="19" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="I3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="17"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="I4" s="21" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="I4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="16" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="17"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="I5" s="19" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="I5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="17"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
     </row>
     <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
@@ -3780,16 +4471,16 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="23" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="24"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
@@ -3798,12 +4489,12 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
@@ -3816,12 +4507,12 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
@@ -3844,16 +4535,16 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="24"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
@@ -3862,12 +4553,12 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="28"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
@@ -3876,12 +4567,12 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
@@ -3890,12 +4581,12 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="28"/>
     </row>
     <row r="14" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
@@ -3908,12 +4599,12 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
@@ -3922,12 +4613,12 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="28"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
@@ -3941,7 +4632,7 @@
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -3969,9 +4660,9 @@
       <c r="D18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
@@ -3982,10 +4673,10 @@
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -3996,89 +4687,81 @@
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="I20" s="23" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="I20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="30"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="36"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="41" t="s">
+      <c r="J23" s="19"/>
+      <c r="K23" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="30"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I24" s="27"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="36"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K23:N24"/>
-    <mergeCell ref="D8:G13"/>
-    <mergeCell ref="D14:G17"/>
-    <mergeCell ref="K10:N15"/>
-    <mergeCell ref="I10:J15"/>
-    <mergeCell ref="K16:N19"/>
-    <mergeCell ref="I16:J19"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="B18:C20"/>
@@ -4095,12 +4778,20 @@
     <mergeCell ref="B8:C13"/>
     <mergeCell ref="D6:G7"/>
     <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="K23:N24"/>
+    <mergeCell ref="D8:G13"/>
+    <mergeCell ref="D14:G17"/>
+    <mergeCell ref="K10:N15"/>
+    <mergeCell ref="I10:J15"/>
+    <mergeCell ref="K16:N19"/>
+    <mergeCell ref="I16:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4117,236 +4808,236 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17"/>
-      <c r="I2" s="16" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="I2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="16" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="17"/>
-      <c r="P2" s="16" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="P2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="16" t="s">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="I3" s="19" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="I3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="17"/>
-      <c r="P3" s="19" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="P3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="16" t="s">
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="17"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="36"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
-      <c r="I4" s="21" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="I4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="16" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="17"/>
-      <c r="P4" s="21" t="s">
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="36"/>
+      <c r="P4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="16" t="s">
+      <c r="Q4" s="38"/>
+      <c r="R4" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="36"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="I5" s="19" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="I5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="17"/>
-      <c r="P5" s="19" t="s">
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="P5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="16" t="s">
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="17"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
     </row>
     <row r="6" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="24"/>
-      <c r="I6" s="23" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="19"/>
+      <c r="I6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="23" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="24"/>
-      <c r="P6" s="23" t="s">
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="19"/>
+      <c r="P6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="23" t="s">
+      <c r="Q6" s="19"/>
+      <c r="R6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="24"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="19"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="26"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="26"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="28"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="24"/>
-      <c r="I8" s="23" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="19"/>
+      <c r="I8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="23" t="s">
+      <c r="J8" s="19"/>
+      <c r="K8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="24"/>
-      <c r="P8" s="23" t="s">
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="19"/>
+      <c r="P8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23" t="s">
+      <c r="Q8" s="19"/>
+      <c r="R8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="24"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="19"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="28"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="26"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="26"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="21"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="28"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="28"/>
     </row>
     <row r="10" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
@@ -4359,18 +5050,18 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="28"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="28"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="21"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="21"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
@@ -4379,72 +5070,72 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="19"/>
+      <c r="K11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="30"/>
-      <c r="P11" s="23" t="s">
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="P11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="30"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="23"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="36"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="36"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="26"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="I13" s="23" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="I13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="23" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="30"/>
-      <c r="P13" s="12" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
+      <c r="P13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="12"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="13" t="s">
         <v>78</v>
       </c>
@@ -4453,14 +5144,14 @@
       <c r="U13" s="13"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
@@ -4473,22 +5164,22 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36"/>
-      <c r="P15" s="23" t="s">
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="26"/>
+      <c r="P15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="23" t="s">
+      <c r="Q15" s="19"/>
+      <c r="R15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="30"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="23"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
@@ -4497,22 +5188,22 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="41" t="s">
+      <c r="J16" s="19"/>
+      <c r="K16" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="30"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="33"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="31"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -4521,18 +5212,18 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="36"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="36"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="26"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
@@ -4541,124 +5232,124 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="P18" s="23" t="s">
+      <c r="P18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="23" t="s">
+      <c r="Q18" s="19"/>
+      <c r="R18" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="30"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="23"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="P19" s="27"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="36"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="26"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="16" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="17"/>
-      <c r="I22" s="12" t="s">
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="I22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12" t="s">
+      <c r="J22" s="14"/>
+      <c r="K22" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="16" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="I23" s="14" t="s">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="I23" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="12" t="s">
+      <c r="J23" s="15"/>
+      <c r="K23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="17"/>
-      <c r="I24" s="15" t="s">
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="I24" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="12" t="s">
+      <c r="J24" s="16"/>
+      <c r="K24" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="17"/>
-      <c r="I25" s="14" t="s">
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="I25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="12" t="s">
+      <c r="J25" s="15"/>
+      <c r="K25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="23" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="24"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="19"/>
       <c r="I26" s="13" t="s">
         <v>3</v>
       </c>
@@ -4671,12 +5362,12 @@
       <c r="N26" s="13"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="28"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -4685,16 +5376,16 @@
       <c r="N27" s="13"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="24"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="19"/>
       <c r="I28" s="13" t="s">
         <v>4</v>
       </c>
@@ -4707,12 +5398,12 @@
       <c r="N28" s="13"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="28"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -4721,12 +5412,12 @@
       <c r="N29" s="13"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="28"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="21"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
@@ -4735,52 +5426,52 @@
       <c r="N30" s="13"/>
     </row>
     <row r="31" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="I31" s="23" t="s">
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="I31" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="J31" s="24"/>
-      <c r="K31" s="23" t="s">
+      <c r="J31" s="19"/>
+      <c r="K31" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="30"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="23"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="36"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26"/>
     </row>
     <row r="33" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="23" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
       <c r="I33" s="13" t="s">
         <v>6</v>
       </c>
@@ -4788,73 +5479,73 @@
       <c r="K33" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
     </row>
     <row r="35" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="41" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
       <c r="I36" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J36" s="13"/>
-      <c r="K36" s="12" t="s">
+      <c r="K36" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I43" s="2"/>
@@ -4863,48 +5554,40 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="D36:G37"/>
-    <mergeCell ref="D8:G9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D10:G11"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="D33:G35"/>
-    <mergeCell ref="I36:J37"/>
-    <mergeCell ref="K36:N37"/>
-    <mergeCell ref="K28:N30"/>
-    <mergeCell ref="I28:J30"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="K31:N32"/>
-    <mergeCell ref="I33:J35"/>
-    <mergeCell ref="K33:N35"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:G32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D28:G30"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="D26:G27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="K26:N27"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:N17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="I13:J15"/>
+    <mergeCell ref="K13:N15"/>
+    <mergeCell ref="K8:N10"/>
+    <mergeCell ref="I8:J10"/>
+    <mergeCell ref="P11:Q12"/>
+    <mergeCell ref="R11:U12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="K11:N12"/>
+    <mergeCell ref="P15:Q17"/>
+    <mergeCell ref="R15:U17"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="R18:U19"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U7"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="P13:Q14"/>
+    <mergeCell ref="R13:U14"/>
+    <mergeCell ref="R8:U10"/>
+    <mergeCell ref="P8:Q10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="D6:G7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="I4:J4"/>
@@ -4917,42 +5600,50 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="K6:N7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="P15:Q17"/>
-    <mergeCell ref="R15:U17"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="R18:U19"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U7"/>
-    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:N17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D28:G30"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="D26:G27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="K26:N27"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="K36:N37"/>
+    <mergeCell ref="K28:N30"/>
+    <mergeCell ref="I28:J30"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="K31:N32"/>
+    <mergeCell ref="I33:J35"/>
+    <mergeCell ref="K33:N35"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="D36:G37"/>
+    <mergeCell ref="D8:G9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D10:G11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="D33:G35"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:G32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="D12:G13"/>
-    <mergeCell ref="P13:Q14"/>
-    <mergeCell ref="R13:U14"/>
-    <mergeCell ref="R8:U10"/>
-    <mergeCell ref="P8:Q10"/>
-    <mergeCell ref="K8:N10"/>
-    <mergeCell ref="I8:J10"/>
-    <mergeCell ref="P11:Q12"/>
-    <mergeCell ref="R11:U12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="K11:N12"/>
-    <mergeCell ref="I13:J15"/>
-    <mergeCell ref="K13:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4970,92 +5661,92 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="I3" s="14" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="I3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="I4" s="15" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="I4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="I5" s="14" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="I5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="15"/>
+      <c r="K5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
@@ -5073,7 +5764,7 @@
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -5113,7 +5804,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -5123,7 +5814,7 @@
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -5214,36 +5905,36 @@
       <c r="N15" s="13"/>
     </row>
     <row r="16" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -5255,7 +5946,7 @@
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -5265,11 +5956,11 @@
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
@@ -5280,10 +5971,10 @@
       <c r="G19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
@@ -5294,62 +5985,49 @@
       <c r="G20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
     </row>
     <row r="21" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
       <c r="I21" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="13"/>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="K21:N22"/>
-    <mergeCell ref="K6:N8"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="I18:J20"/>
-    <mergeCell ref="K18:N20"/>
-    <mergeCell ref="D18:G20"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="B9:C15"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="B21:C22"/>
     <mergeCell ref="D21:G22"/>
     <mergeCell ref="I2:J2"/>
@@ -5366,6 +6044,14 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="B18:C20"/>
+    <mergeCell ref="D18:G20"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="B9:C15"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="K9:N15"/>
     <mergeCell ref="K16:N17"/>
@@ -5373,6 +6059,11 @@
     <mergeCell ref="I9:J15"/>
     <mergeCell ref="D9:G15"/>
     <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K21:N22"/>
+    <mergeCell ref="K6:N8"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="I18:J20"/>
+    <mergeCell ref="K18:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
